--- a/core/cat/plugins/ears2gherkin/generated/gherkin_input.xlsx
+++ b/core/cat/plugins/ears2gherkin/generated/gherkin_input.xlsx
@@ -441,109 +441,385 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Feature: Login System
+Scenario: A user logs into the system
+Given User logs in when provided credentials
+When 
+Then access their dashboard.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Translation failed</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Feature: Checkout
+Scenario: A user completes a purchase
+Given User initiates checkout
+When when payment details are provided,
+Then complete purchase.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Feature: Notifications
+Scenario: A user receives a notification
+Given System sends notification
+When when new messages arrive,
+Then notify the user.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Feature: Search System
+Scenario: A user searches for a product
+Given User enters search query
+When when search button clicked,
+Then return matching results.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Feature: User Profile
+Scenario: A user updates their profile
+Given User updates their profile when profile fields are modified
+When 
+Then save changes.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Feature: Account Settings
+Scenario: A user modifies account settings
+Given User modifies their account settings when settings are adjusted
+When 
+Then save changes.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Feature: Email System
+Scenario: A user sends an email
+Given User sends an email when composing a message and clicking send
+When 
+Then deliver the message.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Feature: File Upload
+Scenario: A user uploads a file
+Given User uploads a file when selecting it
+When 
+Then process and save the file.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Feature: User Registration
+Scenario: A new user registers on the platform
+Given User registers when providing a new username and password
+When 
+Then create a new account.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Feature: Dashboard
+Scenario: A user views the dashboard
+Given User accesses their dashboard when logged in
+When 
+Then view account details.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Feature: Payment Gateway
+Scenario: A user processes a payment
+Given User processes payment when payment details are provided
+When 
+Then confirm transaction.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Feature: Search Results
+Scenario: A user views search results
+Given User views search results when search query is valid
+When 
+Then display results.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Feature: Feedback System
+Scenario: A user submits feedback
+Given User submits feedback when completing a feedback form
+When 
+Then save the response.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Feature: Messaging
+Scenario: A user sends a message to another user
+Given User sends a message to another user
+When when selecting their contact and clicking send,
+Then deliver the message.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Feature: Admin Panel
+Scenario: An admin accesses the control panel
+Given Admin accesses the control panel
+When when provided admin credentials,
+Then view settings.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Feature: Subscription Service
+Scenario: A user subscribes to a plan
+Given User subscribes to a premium service
+When when clicking on subscribe,
+Then access the premium features.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Feature: Settings Page
+Scenario: A user changes settings
+Given User changes settings when provided with new preference options
+When 
+Then save changes.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Feature: Report System
+Scenario: A user accesses reports
+Given User accesses reports when clicking on a report link
+When 
+Then view analytics insights.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Feature: Data Analytics
+Scenario: An analyst accesses the data analytics dashboard
+Given User accesses analytics dashboard when logged in
+When 
+Then display visual data analytics.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Feature: Security Settings
+Scenario: A user modifies security settings
+Given User modifies security settings when toggling authentication
+When 
+Then save preferences.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Feature: Notification Preferences
+Scenario: A user configures notification preferences
+Given User configures notification preferences when adjusting toggle options
+When 
+Then save preferences.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Feature: Cart Recommendations
+Scenario: A user views product recommendations
+Given User views product recommendations when visiting the homepage
+When 
+Then show recommended items.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Feature: Theme Switcher
+Scenario: A user toggles the theme switcher
+Given User toggles theme switcher when clicking the button
+When 
+Then update theme display.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Feature: Search Filters
+Scenario: A user applies search filters
+Given User applies search filters when selecting categories
+When 
+Then show filtered search results.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Feature: History Log
+Scenario: A user views their search history
+Given User views their search history when clicking the history tab
+When 
+Then return relevant searches.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Feature: Privacy Settings
+Scenario: A user accesses privacy settings
+Given User accesses privacy settings when clicking privacy tab
+When 
+Then show privacy options.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Feature: User Preferences
+Scenario: A user sets their preferences
+Given User sets their preferences when saving selected options
+When 
+Then store settings.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Feature: Social Sharing
+Scenario: A user shares content on social media
+Given User shares content via social media
+When when clicking share,
+Then publish on the social network.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Feature: Password Reset
+Scenario: A user resets their password
+Given User resets their password when clicking reset and entering their email
+When 
+Then send recovery email.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Feature: Account Recovery
+Scenario: A user recovers their account
+Given User recovers their account when clicking recovery link
+When 
+Then reset the password.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Feature: Order Tracking
+Scenario: A user tracks their order
+Given User tracks their order when clicking on the order tracking tab
+When 
+Then view tracking info.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Feature: Inventory Management
+Scenario: A warehouse updates inventory
+Given Warehouse updates inventory when items are processed
+When 
+Then save stock updates.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Feature: Promotional Offers
+Scenario: A user receives a promotional offer
+Given User receives a promotional offer when subscribed to a mailing list
+When 
+Then send email.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Feature: Session Timeout
+Scenario: A system times out after inactivity
+Given System times out after inactivity when user is idle for 15 minutes
+When 
+Then log out user.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
